--- a/public/data/lime/lime_table_chad.xlsx
+++ b/public/data/lime/lime_table_chad.xlsx
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.39</v>
+        <v>0.04</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -1640,16 +1640,16 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0.72</v>
+        <v>0.25</v>
       </c>
       <c r="K7" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -2016,10 +2016,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1.32</v>
+        <v>0.74</v>
       </c>
       <c r="K15" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -2063,16 +2063,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>1.05</v>
+        <v>0.57</v>
       </c>
       <c r="K16" t="n">
-        <v>0.11</v>
+        <v>0.01</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -2392,7 +2392,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0.31</v>
+        <v>0.11</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2580,13 +2580,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.99</v>
+        <v>0.73</v>
       </c>
       <c r="K27" t="n">
-        <v>0.35</v>
+        <v>0.11</v>
       </c>
       <c r="L27" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -3050,10 +3050,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0.7</v>
+        <v>0.33</v>
       </c>
       <c r="K37" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -3520,10 +3520,10 @@
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>1.33</v>
+        <v>0.61</v>
       </c>
       <c r="K47" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="L47" t="n">
         <v>0</v>
